--- a/backend/web/export_file/topvalue_template.xlsx
+++ b/backend/web/export_file/topvalue_template.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -33,15 +33,6 @@
       <t>メイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>#6228_Thêm option, update plan</t>
-  </si>
-  <si>
-    <t>hoai</t>
-  </si>
-  <si>
-    <t>hien</t>
   </si>
 </sst>
 </file>
@@ -563,7 +554,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.875" defaultRowHeight="15.75"/>
@@ -583,12 +574,8 @@
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -599,18 +586,10 @@
         <f t="shared" ref="A2:A21" si="0">ROW()-2</f>
         <v>0</v>
       </c>
-      <c r="B2" s="7">
-        <v>3592</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="7">
-        <v>4</v>
-      </c>
-      <c r="E2" s="7">
-        <v>8</v>
-      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -885,11 +864,11 @@
     <row r="22" spans="1:9">
       <c r="D22" s="1">
         <f t="shared" ref="D22:I22" si="1">SUM(D2:D21)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" si="1"/>
